--- a/biology/Botanique/Jardin_des_connaissances_de_l'Université_suédoise_des_sciences_agricoles/Jardin_des_connaissances_de_l'Université_suédoise_des_sciences_agricoles.xlsx
+++ b/biology/Botanique/Jardin_des_connaissances_de_l'Université_suédoise_des_sciences_agricoles/Jardin_des_connaissances_de_l'Université_suédoise_des_sciences_agricoles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_des_connaissances_de_l%27Universit%C3%A9_su%C3%A9doise_des_sciences_agricoles</t>
+          <t>Jardin_des_connaissances_de_l'Université_suédoise_des_sciences_agricoles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin des connaissances de l'Université suédoise des sciences agricoles est un jardin botanique destiné à l'enseignement et à la recherche dans l'environnement bâti à l'Université suédoise des sciences agricoles à Uppsala. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_des_connaissances_de_l%27Universit%C3%A9_su%C3%A9doise_des_sciences_agricoles</t>
+          <t>Jardin_des_connaissances_de_l'Université_suédoise_des_sciences_agricoles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'installation trouve ses racines dans les collections de plantes de l'université à partir des années 1970, a pris sa forme actuelle en 2012 et a été certifiée pour la première fois en 2022[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'installation trouve ses racines dans les collections de plantes de l'université à partir des années 1970, a pris sa forme actuelle en 2012 et a été certifiée pour la première fois en 2022.
 Le jardin botanique est certifié par le Botanical Gardens Conservation International (BGCI) et l’arboretum certifié par ArbNet.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_des_connaissances_de_l%27Universit%C3%A9_su%C3%A9doise_des_sciences_agricoles</t>
+          <t>Jardin_des_connaissances_de_l'Université_suédoise_des_sciences_agricoles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un ensemble composé, où l'on peut voir l'aspect de conception de l'architecture du paysage ; composition de plantes avec des matériaux et des meubles organisés comme une série d'espaces extérieurs variés.  
 </t>
